--- a/Phase1 Integration/Phase 1 instructions.xlsx
+++ b/Phase1 Integration/Phase 1 instructions.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pipeline-Processor\Phase1 Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D90F67-7ECB-42D5-A702-F5B05390D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9AB872-E7ED-4DC9-865B-7C117E13EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Case1" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Case 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>LDD [001] • STD [010] • ADD [011] • NOT [100] • NOP [101]</t>
   </si>
@@ -109,13 +111,64 @@
   </si>
   <si>
     <t>revered</t>
+  </si>
+  <si>
+    <t>RegFile</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>0000_0000_0000_0001</t>
+  </si>
+  <si>
+    <t>0000_0000_0000_0010</t>
+  </si>
+  <si>
+    <t>0000_0000_0000_0011</t>
+  </si>
+  <si>
+    <t>1010_1010_1010_1010</t>
+  </si>
+  <si>
+    <t>1111_1111_1111_1111</t>
+  </si>
+  <si>
+    <t>11111_1111_1111_1110</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +183,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,14 +225,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,27 +532,27 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
         <v>5</v>
@@ -710,16 +769,16 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -727,7 +786,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -735,7 +794,7 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -770,27 +829,27 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -806,4 +865,173 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B95308-05A8-49F5-B594-EE21210B858B}">
+  <dimension ref="B2:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E151B7C-512A-43DB-BABD-62365A037C71}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>